--- a/skills.xlsx
+++ b/skills.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$28</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$37</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
   <si>
     <t>skill</t>
   </si>
@@ -28,91 +28,121 @@
     <t>type</t>
   </si>
   <si>
+    <t>kubeflow</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>mlflow</t>
+  </si>
+  <si>
+    <t>neo4j</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>sagemaker</t>
+  </si>
+  <si>
+    <t>aws athena</t>
+  </si>
+  <si>
+    <t>spark streaming</t>
+  </si>
+  <si>
+    <t>scikit learn</t>
+  </si>
+  <si>
+    <t>solr</t>
+  </si>
+  <si>
+    <t>aws aurora</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>aws emr</t>
+  </si>
+  <si>
+    <t>amazon redshift</t>
+  </si>
+  <si>
+    <t>aws glue</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>airflow</t>
+  </si>
+  <si>
+    <t>bigquery</t>
+  </si>
+  <si>
+    <t>keras</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>aws ec2</t>
+  </si>
+  <si>
+    <t>google cloud platform</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>aws lambda</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+  </si>
+  <si>
+    <t>aws s3</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
     <t>sql server</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>mongodb</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>aws s3</t>
-  </si>
-  <si>
-    <t>elasticsearch</t>
-  </si>
-  <si>
-    <t>aws lambda</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>aws ec2</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>tensorflow</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>keras</t>
-  </si>
-  <si>
-    <t>bigquery</t>
-  </si>
-  <si>
-    <t>airflow</t>
-  </si>
-  <si>
-    <t>pytorch</t>
-  </si>
-  <si>
-    <t>aws glue</t>
-  </si>
-  <si>
-    <t>amazon redshift</t>
-  </si>
-  <si>
-    <t>aws emr</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>solr</t>
-  </si>
-  <si>
-    <t>scikit learn</t>
-  </si>
-  <si>
-    <t>aws athena</t>
-  </si>
-  <si>
-    <t>sagemaker</t>
   </si>
 </sst>
 </file>
@@ -120,17 +150,32 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -142,22 +187,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,22 +195,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,6 +225,21 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -211,7 +248,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,23 +256,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -249,27 +293,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -277,9 +301,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,126 +317,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -421,60 +498,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,6 +508,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -498,36 +530,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -560,17 +562,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -588,148 +611,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -794,6 +817,891 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jobs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:delete val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>aws athena</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aws aurora</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>aws emr</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>aws glue</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>aws ec2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>aws lambda</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>aws s3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aws</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>3199</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5539</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5876</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14672</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17613</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>24053</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>190975</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:overlap val="0"/>
+        <c:axId val="672356587"/>
+        <c:axId val="538240598"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="672356587"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="538240598"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="538240598"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="0" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="672356587"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr lang="en-US"/>
+      </a:pPr>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>192405</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>217170</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>98425</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="2772410" y="132715"/>
+        <a:ext cx="3693795" cy="2091690"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1053,16 +1961,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C28"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O16" sqref="O16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="15.9439252336449" customWidth="1"/>
+    <col min="1" max="1" width="21.3738317757009" customWidth="1"/>
     <col min="2" max="2" width="7.5981308411215" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1077,45 +1985,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>229696</v>
+        <v>953</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>123218</v>
+        <v>1256</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>113056</v>
+        <v>2210</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>83994</v>
+        <v>3077</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -1123,167 +2031,167 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>70590</v>
+        <v>3199</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>51049</v>
+        <v>3261</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>50608</v>
+        <v>3319</v>
       </c>
       <c r="C8" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>34377</v>
+        <v>3982</v>
       </c>
       <c r="C9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>24053</v>
+        <v>4080</v>
       </c>
       <c r="C10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>22993</v>
+        <v>5524</v>
       </c>
       <c r="C11" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>17613</v>
+        <v>5539</v>
       </c>
       <c r="C12" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>16716</v>
+        <v>5804</v>
       </c>
       <c r="C13" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>14672</v>
+        <v>5876</v>
       </c>
       <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>13284</v>
+        <v>7007</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" hidden="1" spans="1:3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>12201</v>
+        <v>8492</v>
       </c>
       <c r="C16" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>11638</v>
+        <v>9136</v>
       </c>
       <c r="C17" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>9136</v>
+        <v>11638</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>8492</v>
+        <v>12201</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>7007</v>
+        <v>13284</v>
       </c>
       <c r="C20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1291,32 +2199,32 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>5876</v>
+        <v>14672</v>
       </c>
       <c r="C21" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
       <c r="B22">
-        <v>5804</v>
+        <v>14915</v>
       </c>
       <c r="C22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
       <c r="B23">
-        <v>5539</v>
+        <v>16716</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1324,21 +2232,21 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>5524</v>
+        <v>17613</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" t="s">
         <v>28</v>
       </c>
       <c r="B25">
-        <v>3982</v>
+        <v>22993</v>
       </c>
       <c r="C25" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1346,45 +2254,157 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>3319</v>
+        <v>24053</v>
       </c>
       <c r="C26" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
         <v>30</v>
       </c>
       <c r="B27">
-        <v>3199</v>
+        <v>34377</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" t="s">
         <v>31</v>
       </c>
       <c r="B28">
-        <v>3077</v>
+        <v>50608</v>
       </c>
       <c r="C28" t="s">
-        <v>19</v>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" hidden="1" spans="1:3">
+      <c r="A29" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29">
+        <v>51049</v>
+      </c>
+      <c r="C29" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" hidden="1" spans="1:3">
+      <c r="A30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30">
+        <v>70590</v>
+      </c>
+      <c r="C30" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" hidden="1" spans="1:3">
+      <c r="A31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31">
+        <v>74381</v>
+      </c>
+      <c r="C31" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="32" hidden="1" spans="1:3">
+      <c r="A32" t="s">
+        <v>36</v>
+      </c>
+      <c r="B32">
+        <v>83994</v>
+      </c>
+      <c r="C32" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" hidden="1" spans="1:3">
+      <c r="A33" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33">
+        <v>113056</v>
+      </c>
+      <c r="C33" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:3">
+      <c r="A34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B34">
+        <v>123218</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" hidden="1" spans="1:3">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B35">
+        <v>141909</v>
+      </c>
+      <c r="C35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B36">
+        <v>190975</v>
+      </c>
+      <c r="C36" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:3">
+      <c r="A37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B37">
+        <v>229696</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C28">
-    <sortState ref="A2:C28">
+  <autoFilter ref="A1:C37">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="aws athena"/>
+        <filter val="aws aurora"/>
+        <filter val="aws lambda"/>
+        <filter val="aws ec2"/>
+        <filter val="aws emr"/>
+        <filter val="aws"/>
+        <filter val="aws s3"/>
+        <filter val="aws glue"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A2:C37">
       <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C28">
-    <sortCondition ref="B2" descending="1"/>
+  <sortState ref="A2:C37">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/skills.xlsx
+++ b/skills.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$37</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$39</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
   <si>
     <t>skill</t>
   </si>
@@ -28,121 +28,127 @@
     <t>type</t>
   </si>
   <si>
+    <t>sql server</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>aws s3</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+  </si>
+  <si>
+    <t>aws lambda</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>google cloud platform</t>
+  </si>
+  <si>
+    <t>aws ec2</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>keras</t>
+  </si>
+  <si>
+    <t>bigquery</t>
+  </si>
+  <si>
+    <t>airflow</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>aws glue</t>
+  </si>
+  <si>
+    <t>amazon redshift</t>
+  </si>
+  <si>
+    <t>aws emr</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>aws eks</t>
+  </si>
+  <si>
+    <t>aws aurora</t>
+  </si>
+  <si>
+    <t>solr</t>
+  </si>
+  <si>
+    <t>scikit learn</t>
+  </si>
+  <si>
+    <t>spark streaming</t>
+  </si>
+  <si>
+    <t>aws athena</t>
+  </si>
+  <si>
+    <t>sagemaker</t>
+  </si>
+  <si>
+    <t>neo4j</t>
+  </si>
+  <si>
+    <t>mlflow</t>
+  </si>
+  <si>
     <t>kubeflow</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>mlflow</t>
-  </si>
-  <si>
-    <t>neo4j</t>
-  </si>
-  <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>sagemaker</t>
-  </si>
-  <si>
-    <t>aws athena</t>
-  </si>
-  <si>
-    <t>spark streaming</t>
-  </si>
-  <si>
-    <t>scikit learn</t>
-  </si>
-  <si>
-    <t>solr</t>
-  </si>
-  <si>
-    <t>aws aurora</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>aws emr</t>
-  </si>
-  <si>
-    <t>amazon redshift</t>
-  </si>
-  <si>
-    <t>aws glue</t>
-  </si>
-  <si>
-    <t>pytorch</t>
-  </si>
-  <si>
-    <t>airflow</t>
-  </si>
-  <si>
-    <t>bigquery</t>
-  </si>
-  <si>
-    <t>keras</t>
-  </si>
-  <si>
-    <t>tensorflow</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>aws ec2</t>
-  </si>
-  <si>
-    <t>google cloud platform</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>aws lambda</t>
-  </si>
-  <si>
-    <t>elasticsearch</t>
-  </si>
-  <si>
-    <t>aws s3</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>mongodb</t>
-  </si>
-  <si>
-    <t>powerbi</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>azure</t>
-  </si>
-  <si>
-    <t>aws</t>
-  </si>
-  <si>
-    <t>sql server</t>
   </si>
 </sst>
 </file>
@@ -150,10 +156,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -164,8 +170,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -173,7 +187,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,47 +252,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,7 +269,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -256,22 +300,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,29 +313,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -317,187 +323,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -515,7 +521,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,30 +537,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,6 +580,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -611,15 +617,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -629,130 +635,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -901,30 +907,114 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="8"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>sql server</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>aws</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>azure</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mysql</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>postgresql</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>kubernetes</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>powerbi</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>mongodb</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>jenkins</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>spark</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>kafka</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>google cloud</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>aws s3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>elasticsearch</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>aws lambda</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>snowflake</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>google cloud platform</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>aws ec2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>redis</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>tensorflow</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>keras</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>bigquery</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>airflow</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>pytorch</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>aws glue</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>amazon redshift</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>aws emr</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>pandas</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>aws eks</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>aws aurora</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>solr</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>scikit learn</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>spark streaming</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>aws athena</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>aws aurora</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>aws emr</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>aws glue</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>aws ec2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>aws lambda</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>aws s3</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>aws</c:v>
+                <c:pt idx="34">
+                  <c:v>sagemaker</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -934,30 +1024,114 @@
               <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:ptCount val="36"/>
                 <c:pt idx="0">
+                  <c:v>229696</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>190975</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>141909</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>123218</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>113056</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>83994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74381</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70590</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>51049</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>50608</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>34377</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30902</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>24053</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22993</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>17613</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16716</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>14915</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>14672</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>13284</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>12201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>11638</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9136</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>8492</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7007</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5876</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5804</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5539</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5524</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>4796</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>4080</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>3982</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>3319</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>3261</c:v>
+                </c:pt>
+                <c:pt idx="33">
                   <c:v>3199</c:v>
                 </c:pt>
-                <c:pt idx="1">
-                  <c:v>4080</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5539</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>5876</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14672</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>17613</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>24053</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>190975</c:v>
+                <c:pt idx="34">
+                  <c:v>3077</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>2210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1690,8 +1864,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="2772410" y="132715"/>
-        <a:ext cx="3693795" cy="2091690"/>
+        <a:off x="3492500" y="132715"/>
+        <a:ext cx="3693795" cy="7052310"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1961,17 +2135,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:C37"/>
+  <sheetPr/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O16" sqref="O16"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="21.3738317757009" customWidth="1"/>
-    <col min="2" max="2" width="7.5981308411215" customWidth="1"/>
+    <col min="2" max="2" width="18.196261682243" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1985,45 +2159,45 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" hidden="1" spans="1:3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2">
-        <v>953</v>
+        <v>229696</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" hidden="1" spans="1:3">
+    <row r="3" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
       <c r="B3">
-        <v>1256</v>
+        <v>190975</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" hidden="1" spans="1:3">
+    <row r="4" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
       <c r="B4">
-        <v>2210</v>
+        <v>141909</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3077</v>
+        <v>123218</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2034,43 +2208,43 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3199</v>
+        <v>113056</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3261</v>
+        <v>83994</v>
       </c>
       <c r="C7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
       <c r="B8">
-        <v>3319</v>
+        <v>74381</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" hidden="1" spans="1:3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>3982</v>
+        <v>70590</v>
       </c>
       <c r="C9" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -2078,21 +2252,21 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4080</v>
+        <v>51049</v>
       </c>
       <c r="C10" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>5524</v>
+        <v>50608</v>
       </c>
       <c r="C11" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -2100,21 +2274,21 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>5539</v>
+        <v>34377</v>
       </c>
       <c r="C12" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5804</v>
+        <v>30902</v>
       </c>
       <c r="C13" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -2122,68 +2296,68 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>5876</v>
+        <v>24053</v>
       </c>
       <c r="C14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>18</v>
       </c>
       <c r="B15">
-        <v>7007</v>
+        <v>22993</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>8492</v>
+        <v>17613</v>
       </c>
       <c r="C16" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>9136</v>
+        <v>16716</v>
       </c>
       <c r="C17" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
         <v>21</v>
       </c>
       <c r="B18">
-        <v>11638</v>
+        <v>14915</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>22</v>
       </c>
       <c r="B19">
-        <v>12201</v>
+        <v>14672</v>
       </c>
       <c r="C19" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2191,7 +2365,7 @@
         <v>13284</v>
       </c>
       <c r="C20" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -2199,164 +2373,164 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>14672</v>
+        <v>12201</v>
       </c>
       <c r="C21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" hidden="1" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>26</v>
+      </c>
+      <c r="B22">
+        <v>11638</v>
+      </c>
+      <c r="C22" t="s">
         <v>25</v>
       </c>
-      <c r="B22">
-        <v>14915</v>
-      </c>
-      <c r="C22" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23" hidden="1" spans="1:3">
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>16716</v>
+        <v>9136</v>
       </c>
       <c r="C23" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>17613</v>
+        <v>8492</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>22993</v>
+        <v>7007</v>
       </c>
       <c r="C25" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>24053</v>
+        <v>5876</v>
       </c>
       <c r="C26" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B27">
-        <v>34377</v>
+        <v>5804</v>
       </c>
       <c r="C27" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>50608</v>
+        <v>5539</v>
       </c>
       <c r="C28" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>51049</v>
+        <v>5524</v>
       </c>
       <c r="C29" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>70590</v>
+        <v>4796</v>
       </c>
       <c r="C30" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>74381</v>
+        <v>4080</v>
       </c>
       <c r="C31" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="32" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>83994</v>
+        <v>3982</v>
       </c>
       <c r="C32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>113056</v>
+        <v>3319</v>
       </c>
       <c r="C33" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>123218</v>
+        <v>3261</v>
       </c>
       <c r="C34" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>141909</v>
+        <v>3199</v>
       </c>
       <c r="C35" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -2364,44 +2538,54 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>190975</v>
+        <v>3077</v>
       </c>
       <c r="C36" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="37" hidden="1" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>229696</v>
+        <v>2210</v>
       </c>
       <c r="C37" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" t="s">
+        <v>42</v>
+      </c>
+      <c r="B38">
+        <v>1256</v>
+      </c>
+      <c r="C38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" t="s">
+        <v>43</v>
+      </c>
+      <c r="B39">
+        <v>953</v>
+      </c>
+      <c r="C39" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C37">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="aws athena"/>
-        <filter val="aws aurora"/>
-        <filter val="aws lambda"/>
-        <filter val="aws ec2"/>
-        <filter val="aws emr"/>
-        <filter val="aws"/>
-        <filter val="aws s3"/>
-        <filter val="aws glue"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:C37">
+  <autoFilter ref="A1:C39">
+    <sortState ref="A2:C39">
       <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C37">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:C39">
+    <sortCondition ref="B21" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/skills.xlsx
+++ b/skills.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$41</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
   <si>
     <t>skill</t>
   </si>
@@ -70,6 +70,12 @@
     <t>google cloud</t>
   </si>
   <si>
+    <t>nlp</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
     <t>aws s3</t>
   </si>
   <si>
@@ -82,6 +88,9 @@
     <t>snowflake</t>
   </si>
   <si>
+    <t>recommendation systems</t>
+  </si>
+  <si>
     <t>google cloud platform</t>
   </si>
   <si>
@@ -92,9 +101,6 @@
   </si>
   <si>
     <t>tensorflow</t>
-  </si>
-  <si>
-    <t>ml</t>
   </si>
   <si>
     <t>keras</t>
@@ -156,10 +162,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -167,6 +173,29 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -179,55 +208,10 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -245,13 +229,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -261,10 +238,32 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -291,18 +290,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -313,6 +305,20 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -323,37 +329,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,139 +509,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -526,26 +532,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -566,21 +563,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -591,6 +573,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,18 +611,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -635,130 +641,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,114 +913,24 @@
             <c:strRef>
               <c:f>Sheet1!$A$2:$A$37</c:f>
               <c:strCache>
-                <c:ptCount val="36"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>sql server</c:v>
+                  <c:v>nlp</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aws</c:v>
+                  <c:v>recommendation systems</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>azure</c:v>
+                  <c:v>tensorflow</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mysql</c:v>
+                  <c:v>keras</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>postgresql</c:v>
+                  <c:v>pytorch</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>kubernetes</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>powerbi</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>mongodb</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>jenkins</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>spark</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>kafka</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>google cloud</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>aws s3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>elasticsearch</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>aws lambda</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>snowflake</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>google cloud platform</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>aws ec2</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>redis</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>tensorflow</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>keras</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>bigquery</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>airflow</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>pytorch</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>aws glue</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>amazon redshift</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>aws emr</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>pandas</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>aws eks</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>aws aurora</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>solr</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>scikit learn</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>spark streaming</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>aws athena</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>sagemaker</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>neo4j</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1024,114 +940,24 @@
               <c:f>Sheet1!$B$2:$B$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="36"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>229696</c:v>
+                  <c:v>28867</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>190975</c:v>
+                  <c:v>15828</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>141909</c:v>
+                  <c:v>12201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>123218</c:v>
+                  <c:v>11638</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>113056</c:v>
+                  <c:v>7007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>83994</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74381</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>70590</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>51049</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>50608</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>34377</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>30902</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>24053</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>22993</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>17613</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16716</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>14915</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>14672</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13284</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>12201</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>11638</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>9136</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>8492</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>7007</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>5876</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>5804</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>5539</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5524</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>4796</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>4080</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3982</c:v>
-                </c:pt>
-                <c:pt idx="31">
                   <c:v>3319</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3261</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3199</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3077</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>2210</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1864,8 +1690,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3492500" y="132715"/>
-        <a:ext cx="3693795" cy="7052310"/>
+        <a:off x="3730625" y="132715"/>
+        <a:ext cx="3693795" cy="1560195"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2135,16 +1961,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:C39"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:C41"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="21.3738317757009" customWidth="1"/>
+    <col min="1" max="1" width="24.8785046728972" customWidth="1"/>
     <col min="2" max="2" width="18.196261682243" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2159,7 +1985,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" hidden="1" spans="1:3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -2170,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" hidden="1" spans="1:3">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -2181,7 +2007,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" hidden="1" spans="1:3">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -2192,7 +2018,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -2203,7 +2029,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" hidden="1" spans="1:3">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -2214,7 +2040,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" hidden="1" spans="1:3">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -2225,7 +2051,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" hidden="1" spans="1:3">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -2236,7 +2062,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -2247,7 +2073,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -2258,7 +2084,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" hidden="1" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -2269,7 +2095,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -2280,7 +2106,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" hidden="1" spans="1:3">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -2296,51 +2122,51 @@
         <v>17</v>
       </c>
       <c r="B14">
+        <v>28867</v>
+      </c>
+      <c r="C14" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" hidden="1" spans="1:3">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15">
         <v>24053</v>
       </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15">
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" hidden="1" spans="1:3">
+      <c r="A16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16">
         <v>22993</v>
       </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16">
+      <c r="C16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" hidden="1" spans="1:3">
+      <c r="A17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17">
         <v>17613</v>
       </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17">
+      <c r="C17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" hidden="1" spans="1:3">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18">
         <v>16716</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18">
-        <v>14915</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
@@ -2348,46 +2174,46 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B19">
+        <v>15828</v>
+      </c>
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" hidden="1" spans="1:3">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20">
+        <v>14915</v>
+      </c>
+      <c r="C20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" hidden="1" spans="1:3">
+      <c r="A21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B21">
         <v>14672</v>
       </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>13284</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>12201</v>
-      </c>
       <c r="C21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" hidden="1" spans="1:3">
       <c r="A22" t="s">
         <v>26</v>
       </c>
       <c r="B22">
-        <v>11638</v>
+        <v>13284</v>
       </c>
       <c r="C22" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -2395,10 +2221,10 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>9136</v>
+        <v>12201</v>
       </c>
       <c r="C23" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -2406,29 +2232,29 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>8492</v>
+        <v>11638</v>
       </c>
       <c r="C24" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>7007</v>
+        <v>9136</v>
       </c>
       <c r="C25" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" hidden="1" spans="1:3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
       <c r="B26">
-        <v>5876</v>
+        <v>8492</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
@@ -2439,84 +2265,84 @@
         <v>31</v>
       </c>
       <c r="B27">
-        <v>5804</v>
+        <v>7007</v>
       </c>
       <c r="C27" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>5539</v>
+        <v>5876</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" hidden="1" spans="1:3">
       <c r="A29" t="s">
         <v>33</v>
       </c>
       <c r="B29">
-        <v>5524</v>
+        <v>5804</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" hidden="1" spans="1:3">
       <c r="A30" t="s">
         <v>34</v>
       </c>
       <c r="B30">
-        <v>4796</v>
+        <v>5539</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" hidden="1" spans="1:3">
       <c r="A31" t="s">
         <v>35</v>
       </c>
       <c r="B31">
-        <v>4080</v>
+        <v>5524</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" hidden="1" spans="1:3">
       <c r="A32" t="s">
         <v>36</v>
       </c>
       <c r="B32">
-        <v>3982</v>
+        <v>4796</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" hidden="1" spans="1:3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>3319</v>
+        <v>4080</v>
       </c>
       <c r="C33" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" hidden="1" spans="1:3">
       <c r="A34" t="s">
         <v>38</v>
       </c>
       <c r="B34">
-        <v>3261</v>
+        <v>3982</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
@@ -2527,29 +2353,29 @@
         <v>39</v>
       </c>
       <c r="B35">
-        <v>3199</v>
+        <v>3319</v>
       </c>
       <c r="C35" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" hidden="1" spans="1:3">
       <c r="A36" t="s">
         <v>40</v>
       </c>
       <c r="B36">
-        <v>3077</v>
+        <v>3261</v>
       </c>
       <c r="C36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" hidden="1" spans="1:3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>2210</v>
+        <v>3199</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
@@ -2560,32 +2386,59 @@
         <v>42</v>
       </c>
       <c r="B38">
-        <v>1256</v>
+        <v>3077</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" hidden="1" spans="1:3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
+        <v>2210</v>
+      </c>
+      <c r="C39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" t="s">
+        <v>44</v>
+      </c>
+      <c r="B40">
+        <v>1256</v>
+      </c>
+      <c r="C40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
         <v>953</v>
       </c>
-      <c r="C39" t="s">
-        <v>25</v>
+      <c r="C41" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C39">
-    <sortState ref="A2:C39">
+  <autoFilter ref="A1:C41">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ml"/>
+      </filters>
+    </filterColumn>
+    <sortState ref="A1:C41">
       <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C39">
-    <sortCondition ref="B21" descending="1"/>
+  <sortState ref="A2:C41">
+    <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/skills.xlsx
+++ b/skills.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$49</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
   <si>
     <t>skill</t>
   </si>
@@ -28,133 +28,157 @@
     <t>type</t>
   </si>
   <si>
+    <t>lucene</t>
+  </si>
+  <si>
+    <t>de</t>
+  </si>
+  <si>
+    <t>neo4j</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>aws athena</t>
+  </si>
+  <si>
+    <t>spark streaming</t>
+  </si>
+  <si>
+    <t>solr</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>aws aurora</t>
+  </si>
+  <si>
+    <t>aws eks</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>aws emr</t>
+  </si>
+  <si>
+    <t>amazon redshift</t>
+  </si>
+  <si>
+    <t>kubeflow</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>aws glue</t>
+  </si>
+  <si>
+    <t>airflow</t>
+  </si>
+  <si>
+    <t>bigquery</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>object detection</t>
+  </si>
+  <si>
+    <t>aws ec2</t>
+  </si>
+  <si>
+    <t>google cloud platform</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>mlflow</t>
+  </si>
+  <si>
+    <t>natural language understanding</t>
+  </si>
+  <si>
+    <t>aws lambda</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+  </si>
+  <si>
+    <t>sagemaker</t>
+  </si>
+  <si>
+    <t>aws s3</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>scikit learn</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>opencv</t>
+  </si>
+  <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>search engine</t>
+  </si>
+  <si>
+    <t>keras</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
     <t>sql server</t>
   </si>
   <si>
-    <t>de</t>
-  </si>
-  <si>
-    <t>aws</t>
-  </si>
-  <si>
-    <t>azure</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>powerbi</t>
-  </si>
-  <si>
-    <t>mongodb</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>google cloud</t>
+    <t>recommendation systems</t>
   </si>
   <si>
     <t>nlp</t>
   </si>
   <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>aws s3</t>
-  </si>
-  <si>
-    <t>elasticsearch</t>
-  </si>
-  <si>
-    <t>aws lambda</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>recommendation systems</t>
-  </si>
-  <si>
-    <t>google cloud platform</t>
-  </si>
-  <si>
-    <t>aws ec2</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>tensorflow</t>
-  </si>
-  <si>
-    <t>keras</t>
-  </si>
-  <si>
-    <t>bigquery</t>
-  </si>
-  <si>
-    <t>airflow</t>
-  </si>
-  <si>
-    <t>pytorch</t>
-  </si>
-  <si>
-    <t>aws glue</t>
-  </si>
-  <si>
-    <t>amazon redshift</t>
-  </si>
-  <si>
-    <t>aws emr</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>aws eks</t>
-  </si>
-  <si>
-    <t>aws aurora</t>
-  </si>
-  <si>
-    <t>solr</t>
-  </si>
-  <si>
-    <t>scikit learn</t>
-  </si>
-  <si>
-    <t>spark streaming</t>
-  </si>
-  <si>
-    <t>aws athena</t>
-  </si>
-  <si>
-    <t>sagemaker</t>
-  </si>
-  <si>
-    <t>neo4j</t>
-  </si>
-  <si>
-    <t>mlflow</t>
-  </si>
-  <si>
-    <t>kubeflow</t>
+    <t>natural language processing</t>
+  </si>
+  <si>
+    <t>computer vision</t>
+  </si>
+  <si>
+    <t>computer vision engineer</t>
   </si>
 </sst>
 </file>
@@ -162,10 +186,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -176,11 +200,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,29 +231,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -223,7 +238,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,31 +254,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -298,6 +299,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +329,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -314,7 +338,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,25 +353,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,157 +527,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -520,15 +544,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -547,32 +562,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -596,7 +590,46 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -611,27 +644,18 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -641,130 +665,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -911,53 +935,71 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$37</c:f>
+              <c:f>Sheet1!$A$2:$A$49</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>nlp</c:v>
+                  <c:v>aws athena</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>recommendation systems</c:v>
+                  <c:v>aws aurora</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>tensorflow</c:v>
+                  <c:v>aws eks</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>keras</c:v>
+                  <c:v>aws emr</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>pytorch</c:v>
+                  <c:v>aws glue</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>scikit learn</c:v>
+                  <c:v>aws ec2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>aws lambda</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>aws s3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>aws</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$37</c:f>
+              <c:f>Sheet1!$B$2:$B$49</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>28867</c:v>
+                  <c:v>3199</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15828</c:v>
+                  <c:v>4080</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12201</c:v>
+                  <c:v>4796</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>11638</c:v>
+                  <c:v>5539</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7007</c:v>
+                  <c:v>5876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3319</c:v>
+                  <c:v>14672</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17613</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>24053</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>190975</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1674,15 +1716,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>192405</xdr:colOff>
+      <xdr:colOff>187325</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>132715</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>217170</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>98425</xdr:rowOff>
+      <xdr:colOff>19685</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1690,8 +1732,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3730625" y="132715"/>
-        <a:ext cx="3693795" cy="1560195"/>
+        <a:off x="3725545" y="132715"/>
+        <a:ext cx="3501390" cy="4084955"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1962,10 +2004,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+      <selection activeCell="B1" sqref="B$1:B$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
@@ -1990,7 +2032,7 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>229696</v>
+        <v>1392</v>
       </c>
       <c r="C2" t="s">
         <v>4</v>
@@ -2001,7 +2043,7 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>190975</v>
+        <v>2210</v>
       </c>
       <c r="C3" t="s">
         <v>4</v>
@@ -2018,12 +2060,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" hidden="1" spans="1:3">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>123218</v>
+        <v>3199</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2034,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>113056</v>
+        <v>3261</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2045,7 +2087,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>83994</v>
+        <v>3982</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2062,23 +2104,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>70590</v>
+        <v>4080</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" hidden="1" spans="1:3">
+    <row r="10" spans="1:3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>51049</v>
+        <v>4796</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2089,18 +2131,18 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>50608</v>
+        <v>5524</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" hidden="1" spans="1:3">
+    <row r="12" spans="1:3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>34377</v>
+        <v>5539</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2111,29 +2153,29 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>30902</v>
+        <v>5804</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" hidden="1" spans="1:3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
       <c r="B14">
-        <v>28867</v>
+        <v>953</v>
       </c>
       <c r="C14" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" hidden="1" spans="1:3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>24053</v>
+        <v>5876</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2144,7 +2186,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>22993</v>
+        <v>8492</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2155,7 +2197,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>17613</v>
+        <v>9136</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2166,29 +2208,29 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>16716</v>
+        <v>13284</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" hidden="1" spans="1:3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
       <c r="B19">
-        <v>15828</v>
+        <v>1128</v>
       </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>14915</v>
+        <v>14672</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2199,7 +2241,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>14672</v>
+        <v>14915</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2210,40 +2252,40 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>13284</v>
+        <v>16716</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
       <c r="B23">
-        <v>12201</v>
+        <v>1256</v>
       </c>
       <c r="C23" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" hidden="1" spans="1:3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
       <c r="B24">
-        <v>11638</v>
+        <v>1780</v>
       </c>
       <c r="C24" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="25" hidden="1" spans="1:3">
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>9136</v>
+        <v>17613</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2254,29 +2296,29 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>8492</v>
+        <v>22993</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" hidden="1" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>7007</v>
+        <v>3077</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" hidden="1" spans="1:3">
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>5876</v>
+        <v>24053</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2287,7 +2329,7 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>5804</v>
+        <v>30902</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -2298,7 +2340,7 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>5539</v>
+        <v>34377</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -2309,7 +2351,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>5524</v>
+        <v>50608</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -2320,7 +2362,7 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>4796</v>
+        <v>51049</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -2331,7 +2373,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>4080</v>
+        <v>70590</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2342,13 +2384,13 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>3982</v>
+        <v>83994</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" hidden="1" spans="1:3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
@@ -2364,7 +2406,7 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>3261</v>
+        <v>113056</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -2375,70 +2417,171 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>3199</v>
+        <v>123218</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" hidden="1" spans="1:3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>3077</v>
+        <v>5341</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>2210</v>
+        <v>190975</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" hidden="1" spans="1:3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>1256</v>
+        <v>7007</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" hidden="1" spans="1:3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>953</v>
+        <v>10699</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
     </row>
+    <row r="42" hidden="1" spans="1:3">
+      <c r="A42" t="s">
+        <v>46</v>
+      </c>
+      <c r="B42">
+        <v>11638</v>
+      </c>
+      <c r="C42" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" hidden="1" spans="1:3">
+      <c r="A43" t="s">
+        <v>47</v>
+      </c>
+      <c r="B43">
+        <v>12201</v>
+      </c>
+      <c r="C43" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" hidden="1" spans="1:3">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44">
+        <v>229696</v>
+      </c>
+      <c r="C44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" hidden="1" spans="1:3">
+      <c r="A45" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45">
+        <v>15828</v>
+      </c>
+      <c r="C45" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" hidden="1" spans="1:3">
+      <c r="A46" t="s">
+        <v>50</v>
+      </c>
+      <c r="B46">
+        <v>28867</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" hidden="1" spans="1:3">
+      <c r="A47" t="s">
+        <v>51</v>
+      </c>
+      <c r="B47">
+        <v>29168</v>
+      </c>
+      <c r="C47" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" hidden="1" spans="1:3">
+      <c r="A48" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>92257</v>
+      </c>
+      <c r="C48" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" hidden="1" spans="1:3">
+      <c r="A49" t="s">
+        <v>53</v>
+      </c>
+      <c r="B49">
+        <v>120646</v>
+      </c>
+      <c r="C49" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C41">
+  <autoFilter ref="A1:C49">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="aws athena"/>
+        <filter val="aws aurora"/>
+        <filter val="aws lambda"/>
+        <filter val="aws ec2"/>
+        <filter val="aws emr"/>
+        <filter val="aws"/>
+        <filter val="aws s3"/>
+        <filter val="aws eks"/>
+        <filter val="aws glue"/>
+      </filters>
+    </filterColumn>
     <filterColumn colId="2">
       <filters>
-        <filter val="ml"/>
+        <filter val="de"/>
       </filters>
     </filterColumn>
-    <sortState ref="A1:C41">
-      <sortCondition ref="B2" descending="1"/>
+    <sortState ref="A2:C49">
+      <sortCondition ref="B2"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C41">
-    <sortCondition ref="B2" descending="1"/>
+  <sortState ref="A2:C49">
+    <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/skills.xlsx
+++ b/skills.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20632" windowHeight="7920"/>
+    <workbookView windowWidth="19966" windowHeight="7920"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$49</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$50</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
   <si>
     <t>skill</t>
   </si>
@@ -43,114 +43,114 @@
     <t>da</t>
   </si>
   <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>spark streaming</t>
+  </si>
+  <si>
+    <t>solr</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>aws s3</t>
+  </si>
+  <si>
+    <t>aws lambda</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>aws ec2</t>
+  </si>
+  <si>
+    <t>amazon redshift</t>
+  </si>
+  <si>
+    <t>kubeflow</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>aws glue</t>
+  </si>
+  <si>
+    <t>airflow</t>
+  </si>
+  <si>
+    <t>bigquery</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>object detection</t>
+  </si>
+  <si>
+    <t>aws emr</t>
+  </si>
+  <si>
+    <t>google cloud platform</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>mlflow</t>
+  </si>
+  <si>
+    <t>natural language understanding</t>
+  </si>
+  <si>
+    <t>aws eks</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+  </si>
+  <si>
+    <t>sagemaker</t>
+  </si>
+  <si>
+    <t>aws aurora</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>scikit learn</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>opencv</t>
+  </si>
+  <si>
     <t>aws athena</t>
   </si>
   <si>
-    <t>spark streaming</t>
-  </si>
-  <si>
-    <t>solr</t>
-  </si>
-  <si>
-    <t>powerbi</t>
-  </si>
-  <si>
-    <t>aws aurora</t>
-  </si>
-  <si>
-    <t>aws eks</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>aws emr</t>
-  </si>
-  <si>
-    <t>amazon redshift</t>
-  </si>
-  <si>
-    <t>kubeflow</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>aws glue</t>
-  </si>
-  <si>
-    <t>airflow</t>
-  </si>
-  <si>
-    <t>bigquery</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>object detection</t>
-  </si>
-  <si>
-    <t>aws ec2</t>
-  </si>
-  <si>
-    <t>google cloud platform</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>mlflow</t>
-  </si>
-  <si>
-    <t>natural language understanding</t>
-  </si>
-  <si>
-    <t>aws lambda</t>
-  </si>
-  <si>
-    <t>elasticsearch</t>
-  </si>
-  <si>
-    <t>sagemaker</t>
-  </si>
-  <si>
-    <t>aws s3</t>
-  </si>
-  <si>
-    <t>google cloud</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>mongodb</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>scikit learn</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>opencv</t>
-  </si>
-  <si>
-    <t>aws</t>
-  </si>
-  <si>
     <t>pytorch</t>
   </si>
   <si>
@@ -179,6 +179,9 @@
   </si>
   <si>
     <t>computer vision engineer</t>
+  </si>
+  <si>
+    <t>aws sagemaker</t>
   </si>
 </sst>
 </file>
@@ -200,23 +203,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,14 +243,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,24 +287,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -300,7 +311,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,14 +326,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -336,13 +346,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -353,13 +356,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -371,7 +482,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,157 +524,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,17 +550,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -565,8 +577,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,26 +622,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,7 +650,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,130 +668,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -939,31 +942,31 @@
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>aws athena</c:v>
+                  <c:v>aws</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aws aurora</c:v>
+                  <c:v>aws s3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>aws eks</c:v>
+                  <c:v>aws lambda</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>aws emr</c:v>
+                  <c:v>aws ec2</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>aws glue</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>aws ec2</c:v>
+                  <c:v>aws emr</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>aws lambda</c:v>
+                  <c:v>aws eks</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>aws s3</c:v>
+                  <c:v>aws aurora</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>aws</c:v>
+                  <c:v>aws athena</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -975,31 +978,31 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>3199</c:v>
+                  <c:v>190975</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4080</c:v>
+                  <c:v>24053</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4796</c:v>
+                  <c:v>17613</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5539</c:v>
+                  <c:v>14672</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>5876</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14672</c:v>
+                  <c:v>5539</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17613</c:v>
+                  <c:v>4796</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>24053</c:v>
+                  <c:v>4080</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>190975</c:v>
+                  <c:v>3199</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2004,10 +2007,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
@@ -2065,7 +2068,7 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>3199</v>
+        <v>190975</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2109,7 +2112,7 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>4080</v>
+        <v>24053</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
@@ -2120,7 +2123,7 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>4796</v>
+        <v>17613</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2142,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>5539</v>
+        <v>14672</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2230,7 +2233,7 @@
         <v>24</v>
       </c>
       <c r="B20">
-        <v>14672</v>
+        <v>5539</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2285,7 +2288,7 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>17613</v>
+        <v>4796</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2318,7 +2321,7 @@
         <v>32</v>
       </c>
       <c r="B28">
-        <v>24053</v>
+        <v>4080</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2439,7 +2442,7 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>190975</v>
+        <v>3199</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
@@ -2555,8 +2558,19 @@
         <v>18</v>
       </c>
     </row>
+    <row r="50" spans="1:3">
+      <c r="A50" t="s">
+        <v>54</v>
+      </c>
+      <c r="B50">
+        <v>2987</v>
+      </c>
+      <c r="C50" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C49">
+  <autoFilter ref="A1:C50">
     <filterColumn colId="0">
       <filters>
         <filter val="aws athena"/>
@@ -2571,12 +2585,12 @@
       </filters>
     </filterColumn>
     <filterColumn colId="2">
-      <filters>
-        <filter val="de"/>
-      </filters>
+      <customFilters>
+        <customFilter operator="equal" val="de"/>
+      </customFilters>
     </filterColumn>
-    <sortState ref="A2:C49">
-      <sortCondition ref="B2"/>
+    <sortState ref="A2:C50">
+      <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>

--- a/skills.xlsx
+++ b/skills.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19966" windowHeight="7920"/>
+    <workbookView windowWidth="19966" windowHeight="7468"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$53</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="58">
   <si>
     <t>skill</t>
   </si>
@@ -43,117 +43,129 @@
     <t>da</t>
   </si>
   <si>
+    <t>aws sagemaker</t>
+  </si>
+  <si>
+    <t>aws athena</t>
+  </si>
+  <si>
+    <t>spark streaming</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>solr</t>
+  </si>
+  <si>
+    <t>aws aurora</t>
+  </si>
+  <si>
+    <t>aws eks</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>aws emr</t>
+  </si>
+  <si>
+    <t>kubeflow</t>
+  </si>
+  <si>
+    <t>ml</t>
+  </si>
+  <si>
+    <t>amazon redshift</t>
+  </si>
+  <si>
+    <t>aws glue</t>
+  </si>
+  <si>
+    <t>airflow</t>
+  </si>
+  <si>
+    <t>bigquery</t>
+  </si>
+  <si>
+    <t>object detection</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>aws ec2</t>
+  </si>
+  <si>
+    <t>google cloud platform</t>
+  </si>
+  <si>
+    <t>mlflow</t>
+  </si>
+  <si>
+    <t>natural language understanding</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>aws lambda</t>
+  </si>
+  <si>
+    <t>conversational ai</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+  </si>
+  <si>
+    <t>aws s3</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>sagemaker</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>scikit learn</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>recommendation system</t>
+  </si>
+  <si>
+    <t>opencv</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>information retrieval</t>
+  </si>
+  <si>
     <t>aws</t>
   </si>
   <si>
-    <t>spark streaming</t>
-  </si>
-  <si>
-    <t>solr</t>
-  </si>
-  <si>
-    <t>powerbi</t>
-  </si>
-  <si>
-    <t>aws s3</t>
-  </si>
-  <si>
-    <t>aws lambda</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>aws ec2</t>
-  </si>
-  <si>
-    <t>amazon redshift</t>
-  </si>
-  <si>
-    <t>kubeflow</t>
-  </si>
-  <si>
-    <t>ml</t>
-  </si>
-  <si>
-    <t>aws glue</t>
-  </si>
-  <si>
-    <t>airflow</t>
-  </si>
-  <si>
-    <t>bigquery</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>object detection</t>
-  </si>
-  <si>
-    <t>aws emr</t>
-  </si>
-  <si>
-    <t>google cloud platform</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>mlflow</t>
-  </si>
-  <si>
-    <t>natural language understanding</t>
-  </si>
-  <si>
-    <t>aws eks</t>
-  </si>
-  <si>
-    <t>elasticsearch</t>
-  </si>
-  <si>
-    <t>sagemaker</t>
-  </si>
-  <si>
-    <t>aws aurora</t>
-  </si>
-  <si>
-    <t>google cloud</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>mongodb</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>scikit learn</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>opencv</t>
-  </si>
-  <si>
-    <t>aws athena</t>
-  </si>
-  <si>
-    <t>pytorch</t>
-  </si>
-  <si>
     <t>search engine</t>
   </si>
   <si>
@@ -163,15 +175,15 @@
     <t>tensorflow</t>
   </si>
   <si>
+    <t>recommendation systems</t>
+  </si>
+  <si>
+    <t>nlp</t>
+  </si>
+  <si>
     <t>sql server</t>
   </si>
   <si>
-    <t>recommendation systems</t>
-  </si>
-  <si>
-    <t>nlp</t>
-  </si>
-  <si>
     <t>natural language processing</t>
   </si>
   <si>
@@ -179,9 +191,6 @@
   </si>
   <si>
     <t>computer vision engineer</t>
-  </si>
-  <si>
-    <t>aws sagemaker</t>
   </si>
 </sst>
 </file>
@@ -189,8 +198,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -203,6 +212,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -212,15 +228,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,38 +250,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,14 +274,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
@@ -310,8 +289,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -324,8 +325,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,14 +355,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,6 +365,132 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -368,25 +503,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,24 +521,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -428,96 +533,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -525,18 +546,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -547,39 +556,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -622,6 +598,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -639,6 +624,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -650,15 +659,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -668,130 +677,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -938,71 +947,125 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$A$2:$A$49</c:f>
+              <c:f>Sheet1!$A$2:$A$52</c:f>
               <c:strCache>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>aws</c:v>
+                  <c:v>kubeflow</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>aws s3</c:v>
+                  <c:v>object detection</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>aws lambda</c:v>
+                  <c:v>mlflow</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>aws ec2</c:v>
+                  <c:v>natural language understanding</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>aws glue</c:v>
+                  <c:v>conversational ai</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>aws emr</c:v>
+                  <c:v>sagemaker</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>aws eks</c:v>
+                  <c:v>scikit learn</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>aws aurora</c:v>
+                  <c:v>recommendation system</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>aws athena</c:v>
+                  <c:v>opencv</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>pytorch</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>information retrieval</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>search engine</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>keras</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>tensorflow</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>recommendation systems</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>nlp</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>natural language processing</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>computer vision</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$49</c:f>
+              <c:f>Sheet1!$B$2:$B$52</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>190975</c:v>
+                  <c:v>953</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24053</c:v>
+                  <c:v>1128</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17613</c:v>
+                  <c:v>1256</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>14672</c:v>
+                  <c:v>1780</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5876</c:v>
+                  <c:v>2090</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>5539</c:v>
+                  <c:v>3077</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4796</c:v>
+                  <c:v>3319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4080</c:v>
+                  <c:v>3579</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3199</c:v>
+                  <c:v>5341</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7007</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10699</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>11638</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>12201</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15828</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>28867</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>29168</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>92257</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1018,11 +1081,11 @@
         </c:dLbls>
         <c:gapWidth val="182"/>
         <c:overlap val="0"/>
-        <c:axId val="672356587"/>
-        <c:axId val="538240598"/>
+        <c:axId val="177285042"/>
+        <c:axId val="748275805"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="672356587"/>
+        <c:axId val="177285042"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1063,7 +1126,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="538240598"/>
+        <c:crossAx val="748275805"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1071,7 +1134,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="538240598"/>
+        <c:axId val="748275805"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1121,7 +1184,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="672356587"/>
+        <c:crossAx val="177285042"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1719,24 +1782,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>187325</xdr:colOff>
+      <xdr:colOff>193040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>132715</xdr:rowOff>
+      <xdr:rowOff>77470</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19685</xdr:colOff>
-      <xdr:row>62</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>224155</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>46990</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="3725545" y="132715"/>
-        <a:ext cx="3501390" cy="4084955"/>
+        <a:off x="3731260" y="77470"/>
+        <a:ext cx="4923155" cy="5638800"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -2007,10 +2070,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="O43" sqref="O43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
@@ -2063,12 +2126,12 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" hidden="1" spans="1:3">
       <c r="A5" t="s">
         <v>8</v>
       </c>
       <c r="B5">
-        <v>190975</v>
+        <v>2987</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
@@ -2079,7 +2142,7 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>3261</v>
+        <v>3199</v>
       </c>
       <c r="C6" t="s">
         <v>4</v>
@@ -2090,7 +2153,7 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>3982</v>
+        <v>3261</v>
       </c>
       <c r="C7" t="s">
         <v>4</v>
@@ -2107,23 +2170,23 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" hidden="1" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>24053</v>
+        <v>3982</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" hidden="1" spans="1:3">
       <c r="A10" t="s">
         <v>13</v>
       </c>
       <c r="B10">
-        <v>17613</v>
+        <v>4080</v>
       </c>
       <c r="C10" t="s">
         <v>4</v>
@@ -2134,18 +2197,18 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>5524</v>
+        <v>4796</v>
       </c>
       <c r="C11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" hidden="1" spans="1:3">
       <c r="A12" t="s">
         <v>15</v>
       </c>
       <c r="B12">
-        <v>14672</v>
+        <v>5524</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
@@ -2156,13 +2219,13 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>5804</v>
+        <v>5539</v>
       </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" hidden="1" spans="1:3">
+    <row r="14" spans="1:3">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -2173,12 +2236,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" hidden="1" spans="1:3">
       <c r="A15" t="s">
         <v>19</v>
       </c>
       <c r="B15">
-        <v>5876</v>
+        <v>5804</v>
       </c>
       <c r="C15" t="s">
         <v>4</v>
@@ -2189,7 +2252,7 @@
         <v>20</v>
       </c>
       <c r="B16">
-        <v>8492</v>
+        <v>5876</v>
       </c>
       <c r="C16" t="s">
         <v>4</v>
@@ -2200,7 +2263,7 @@
         <v>21</v>
       </c>
       <c r="B17">
-        <v>9136</v>
+        <v>8492</v>
       </c>
       <c r="C17" t="s">
         <v>4</v>
@@ -2211,13 +2274,13 @@
         <v>22</v>
       </c>
       <c r="B18">
-        <v>13284</v>
+        <v>9136</v>
       </c>
       <c r="C18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="19" hidden="1" spans="1:3">
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
         <v>23</v>
       </c>
@@ -2228,12 +2291,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" hidden="1" spans="1:3">
       <c r="A20" t="s">
         <v>24</v>
       </c>
       <c r="B20">
-        <v>5539</v>
+        <v>13284</v>
       </c>
       <c r="C20" t="s">
         <v>4</v>
@@ -2244,7 +2307,7 @@
         <v>25</v>
       </c>
       <c r="B21">
-        <v>14915</v>
+        <v>14672</v>
       </c>
       <c r="C21" t="s">
         <v>4</v>
@@ -2255,13 +2318,13 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>16716</v>
+        <v>14915</v>
       </c>
       <c r="C22" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" hidden="1" spans="1:3">
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
         <v>27</v>
       </c>
@@ -2272,7 +2335,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" hidden="1" spans="1:3">
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
         <v>28</v>
       </c>
@@ -2283,12 +2346,12 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" hidden="1" spans="1:3">
       <c r="A25" t="s">
         <v>29</v>
       </c>
       <c r="B25">
-        <v>4796</v>
+        <v>16716</v>
       </c>
       <c r="C25" t="s">
         <v>4</v>
@@ -2299,29 +2362,29 @@
         <v>30</v>
       </c>
       <c r="B26">
-        <v>22993</v>
+        <v>17613</v>
       </c>
       <c r="C26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="27" hidden="1" spans="1:3">
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
         <v>31</v>
       </c>
       <c r="B27">
-        <v>3077</v>
+        <v>2090</v>
       </c>
       <c r="C27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" hidden="1" spans="1:3">
       <c r="A28" t="s">
         <v>32</v>
       </c>
       <c r="B28">
-        <v>4080</v>
+        <v>22993</v>
       </c>
       <c r="C28" t="s">
         <v>4</v>
@@ -2332,7 +2395,7 @@
         <v>33</v>
       </c>
       <c r="B29">
-        <v>30902</v>
+        <v>24053</v>
       </c>
       <c r="C29" t="s">
         <v>4</v>
@@ -2343,7 +2406,7 @@
         <v>34</v>
       </c>
       <c r="B30">
-        <v>34377</v>
+        <v>30902</v>
       </c>
       <c r="C30" t="s">
         <v>4</v>
@@ -2354,7 +2417,7 @@
         <v>35</v>
       </c>
       <c r="B31">
-        <v>50608</v>
+        <v>34377</v>
       </c>
       <c r="C31" t="s">
         <v>4</v>
@@ -2365,7 +2428,7 @@
         <v>36</v>
       </c>
       <c r="B32">
-        <v>51049</v>
+        <v>50608</v>
       </c>
       <c r="C32" t="s">
         <v>4</v>
@@ -2376,7 +2439,7 @@
         <v>37</v>
       </c>
       <c r="B33">
-        <v>70590</v>
+        <v>51049</v>
       </c>
       <c r="C33" t="s">
         <v>4</v>
@@ -2387,18 +2450,18 @@
         <v>38</v>
       </c>
       <c r="B34">
-        <v>83994</v>
+        <v>70590</v>
       </c>
       <c r="C34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" hidden="1" spans="1:3">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>39</v>
       </c>
       <c r="B35">
-        <v>3319</v>
+        <v>3077</v>
       </c>
       <c r="C35" t="s">
         <v>18</v>
@@ -2409,7 +2472,7 @@
         <v>40</v>
       </c>
       <c r="B36">
-        <v>113056</v>
+        <v>83994</v>
       </c>
       <c r="C36" t="s">
         <v>4</v>
@@ -2420,73 +2483,73 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>123218</v>
+        <v>113056</v>
       </c>
       <c r="C37" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="38" hidden="1" spans="1:3">
+    <row r="38" spans="1:3">
       <c r="A38" t="s">
         <v>42</v>
       </c>
       <c r="B38">
-        <v>5341</v>
+        <v>3319</v>
       </c>
       <c r="C38" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" hidden="1" spans="1:3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>3199</v>
+        <v>123218</v>
       </c>
       <c r="C39" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="40" hidden="1" spans="1:3">
+    <row r="40" spans="1:3">
       <c r="A40" t="s">
         <v>44</v>
       </c>
       <c r="B40">
-        <v>7007</v>
+        <v>3579</v>
       </c>
       <c r="C40" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="41" hidden="1" spans="1:3">
+    <row r="41" spans="1:3">
       <c r="A41" t="s">
         <v>45</v>
       </c>
       <c r="B41">
-        <v>10699</v>
+        <v>5341</v>
       </c>
       <c r="C41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" hidden="1" spans="1:3">
+    <row r="42" spans="1:3">
       <c r="A42" t="s">
         <v>46</v>
       </c>
       <c r="B42">
-        <v>11638</v>
+        <v>7007</v>
       </c>
       <c r="C42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" hidden="1" spans="1:3">
+    <row r="43" spans="1:3">
       <c r="A43" t="s">
         <v>47</v>
       </c>
       <c r="B43">
-        <v>12201</v>
+        <v>8353</v>
       </c>
       <c r="C43" t="s">
         <v>18</v>
@@ -2497,104 +2560,124 @@
         <v>48</v>
       </c>
       <c r="B44">
-        <v>229696</v>
+        <v>190975</v>
       </c>
       <c r="C44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" hidden="1" spans="1:3">
+    <row r="45" spans="1:3">
       <c r="A45" t="s">
         <v>49</v>
       </c>
       <c r="B45">
-        <v>15828</v>
+        <v>10699</v>
       </c>
       <c r="C45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="46" hidden="1" spans="1:3">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>50</v>
       </c>
       <c r="B46">
-        <v>28867</v>
+        <v>11638</v>
       </c>
       <c r="C46" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="47" hidden="1" spans="1:3">
+    <row r="47" spans="1:3">
       <c r="A47" t="s">
         <v>51</v>
       </c>
       <c r="B47">
-        <v>29168</v>
+        <v>12201</v>
       </c>
       <c r="C47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" hidden="1" spans="1:3">
+    <row r="48" spans="1:3">
       <c r="A48" t="s">
         <v>52</v>
       </c>
       <c r="B48">
-        <v>92257</v>
+        <v>15828</v>
       </c>
       <c r="C48" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="49" hidden="1" spans="1:3">
+    <row r="49" spans="1:3">
       <c r="A49" t="s">
         <v>53</v>
       </c>
       <c r="B49">
-        <v>120646</v>
+        <v>28867</v>
       </c>
       <c r="C49" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" hidden="1" spans="1:3">
       <c r="A50" t="s">
         <v>54</v>
       </c>
       <c r="B50">
-        <v>2987</v>
+        <v>229696</v>
       </c>
       <c r="C50" t="s">
         <v>4</v>
       </c>
     </row>
+    <row r="51" spans="1:3">
+      <c r="A51" t="s">
+        <v>55</v>
+      </c>
+      <c r="B51">
+        <v>29168</v>
+      </c>
+      <c r="C51" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B52">
+        <v>92257</v>
+      </c>
+      <c r="C52" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" t="s">
+        <v>57</v>
+      </c>
+      <c r="B53">
+        <v>120646</v>
+      </c>
+      <c r="C53" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C50">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="aws athena"/>
-        <filter val="aws aurora"/>
-        <filter val="aws lambda"/>
-        <filter val="aws ec2"/>
-        <filter val="aws emr"/>
-        <filter val="aws"/>
-        <filter val="aws s3"/>
-        <filter val="aws eks"/>
-        <filter val="aws glue"/>
-      </filters>
-    </filterColumn>
+  <autoFilter ref="A1:C53">
     <filterColumn colId="2">
       <customFilters>
-        <customFilter operator="equal" val="de"/>
+        <customFilter operator="equal" val="ml"/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A2:C50">
-      <sortCondition ref="B2" descending="1"/>
+    <sortState ref="A1:C53">
+      <sortCondition ref="B2"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C49">
+  <sortState ref="A2:C53">
     <sortCondition ref="B2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/skills.xlsx
+++ b/skills.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
   <si>
     <t>skill</t>
   </si>
@@ -55,151 +55,154 @@
     <t>neo4j</t>
   </si>
   <si>
+    <t>aws</t>
+  </si>
+  <si>
+    <t>sagemaker</t>
+  </si>
+  <si>
+    <t>aws s3</t>
+  </si>
+  <si>
+    <t>spark streaming</t>
+  </si>
+  <si>
+    <t>scikit learn</t>
+  </si>
+  <si>
+    <t>recommendation system</t>
+  </si>
+  <si>
+    <t>solr</t>
+  </si>
+  <si>
+    <t>aws lambda</t>
+  </si>
+  <si>
+    <t>aws ec2</t>
+  </si>
+  <si>
+    <t>opencv</t>
+  </si>
+  <si>
+    <t>pandas</t>
+  </si>
+  <si>
+    <t>aws dynamodb</t>
+  </si>
+  <si>
+    <t>amazon redshift</t>
+  </si>
+  <si>
+    <t>aws glue</t>
+  </si>
+  <si>
+    <t>flask</t>
+  </si>
+  <si>
+    <t>sd</t>
+  </si>
+  <si>
+    <t>pytorch</t>
+  </si>
+  <si>
+    <t>information retrieval</t>
+  </si>
+  <si>
+    <t>django</t>
+  </si>
+  <si>
+    <t>airflow</t>
+  </si>
+  <si>
+    <t>bigquery</t>
+  </si>
+  <si>
+    <t>search engine</t>
+  </si>
+  <si>
+    <t>keras</t>
+  </si>
+  <si>
+    <t>tensorflow</t>
+  </si>
+  <si>
+    <t>redis</t>
+  </si>
+  <si>
+    <t>aws emr</t>
+  </si>
+  <si>
+    <t>google cloud platform</t>
+  </si>
+  <si>
+    <t>recommendation systems</t>
+  </si>
+  <si>
+    <t>snowflake</t>
+  </si>
+  <si>
+    <t>aws eks</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+  </si>
+  <si>
+    <t>aws aurora</t>
+  </si>
+  <si>
+    <t>nlp</t>
+  </si>
+  <si>
+    <t>natural language processing</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>computer vision</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>computer vision engineer</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>azure</t>
+  </si>
+  <si>
+    <t>aws athena</t>
+  </si>
+  <si>
+    <t>sql server</t>
+  </si>
+  <si>
     <t>aws sagemaker</t>
-  </si>
-  <si>
-    <t>sagemaker</t>
-  </si>
-  <si>
-    <t>aws athena</t>
-  </si>
-  <si>
-    <t>spark streaming</t>
-  </si>
-  <si>
-    <t>scikit learn</t>
-  </si>
-  <si>
-    <t>recommendation system</t>
-  </si>
-  <si>
-    <t>solr</t>
-  </si>
-  <si>
-    <t>aws aurora</t>
-  </si>
-  <si>
-    <t>aws eks</t>
-  </si>
-  <si>
-    <t>opencv</t>
-  </si>
-  <si>
-    <t>pandas</t>
-  </si>
-  <si>
-    <t>aws emr</t>
-  </si>
-  <si>
-    <t>amazon redshift</t>
-  </si>
-  <si>
-    <t>aws glue</t>
-  </si>
-  <si>
-    <t>flask</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>pytorch</t>
-  </si>
-  <si>
-    <t>information retrieval</t>
-  </si>
-  <si>
-    <t>django</t>
-  </si>
-  <si>
-    <t>airflow</t>
-  </si>
-  <si>
-    <t>bigquery</t>
-  </si>
-  <si>
-    <t>search engine</t>
-  </si>
-  <si>
-    <t>keras</t>
-  </si>
-  <si>
-    <t>tensorflow</t>
-  </si>
-  <si>
-    <t>redis</t>
-  </si>
-  <si>
-    <t>aws ec2</t>
-  </si>
-  <si>
-    <t>google cloud platform</t>
-  </si>
-  <si>
-    <t>recommendation systems</t>
-  </si>
-  <si>
-    <t>snowflake</t>
-  </si>
-  <si>
-    <t>aws lambda</t>
-  </si>
-  <si>
-    <t>elasticsearch</t>
-  </si>
-  <si>
-    <t>aws s3</t>
-  </si>
-  <si>
-    <t>nlp</t>
-  </si>
-  <si>
-    <t>natural language processing</t>
-  </si>
-  <si>
-    <t>google cloud</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>mongodb</t>
-  </si>
-  <si>
-    <t>powerbi</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>computer vision</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>computer vision engineer</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>azure</t>
-  </si>
-  <si>
-    <t>aws</t>
-  </si>
-  <si>
-    <t>sql server</t>
   </si>
 </sst>
 </file>
@@ -207,9 +210,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -221,6 +224,106 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -230,70 +333,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -306,59 +362,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -374,19 +377,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,163 +551,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -565,36 +568,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -617,17 +590,6 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -657,6 +619,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -665,18 +657,29 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,130 +689,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1134,10 +1137,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B$1:B$1048576"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.95" outlineLevelCol="2"/>
@@ -1234,12 +1237,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" hidden="1" spans="1:3">
+    <row r="9" spans="1:3">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9">
-        <v>2987</v>
+        <v>190975</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -1256,12 +1259,12 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" hidden="1" spans="1:3">
+    <row r="11" spans="1:3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11">
-        <v>3199</v>
+        <v>24053</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -1311,23 +1314,23 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" hidden="1" spans="1:3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>19</v>
       </c>
       <c r="B16">
-        <v>4080</v>
+        <v>17613</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="17" hidden="1" spans="1:3">
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
         <v>20</v>
       </c>
       <c r="B17">
-        <v>4796</v>
+        <v>14672</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -1355,12 +1358,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="20" hidden="1" spans="1:3">
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>5539</v>
+        <v>11888</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
@@ -1377,7 +1380,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="22" hidden="1" spans="1:3">
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
         <v>25</v>
       </c>
@@ -1388,7 +1391,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" hidden="1" spans="1:3">
       <c r="A23" t="s">
         <v>26</v>
       </c>
@@ -1421,7 +1424,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" hidden="1" spans="1:3">
       <c r="A26" t="s">
         <v>30</v>
       </c>
@@ -1498,12 +1501,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="33" hidden="1" spans="1:3">
+    <row r="33" spans="1:3">
       <c r="A33" t="s">
         <v>37</v>
       </c>
       <c r="B33">
-        <v>14672</v>
+        <v>5539</v>
       </c>
       <c r="C33" t="s">
         <v>8</v>
@@ -1542,12 +1545,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="37" hidden="1" spans="1:3">
+    <row r="37" spans="1:3">
       <c r="A37" t="s">
         <v>41</v>
       </c>
       <c r="B37">
-        <v>17613</v>
+        <v>4796</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1564,12 +1567,12 @@
         <v>8</v>
       </c>
     </row>
-    <row r="39" hidden="1" spans="1:3">
+    <row r="39" spans="1:3">
       <c r="A39" t="s">
         <v>43</v>
       </c>
       <c r="B39">
-        <v>24053</v>
+        <v>4080</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -1729,12 +1732,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="54" hidden="1" spans="1:3">
+    <row r="54" spans="1:3">
       <c r="A54" t="s">
         <v>59</v>
       </c>
       <c r="B54">
-        <v>190975</v>
+        <v>3199</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1751,20 +1754,40 @@
         <v>8</v>
       </c>
     </row>
+    <row r="56" spans="1:3">
+      <c r="A56" t="s">
+        <v>61</v>
+      </c>
+      <c r="B56">
+        <v>2987</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C55">
-    <filterColumn colId="2">
+    <filterColumn colId="0">
       <filters>
-        <filter val="sd"/>
+        <filter val="aws athena"/>
+        <filter val="aws aurora"/>
+        <filter val="aws lambda"/>
+        <filter val="aws ec2"/>
+        <filter val="aws emr"/>
+        <filter val="aws sagemaker"/>
+        <filter val="aws"/>
+        <filter val="aws s3"/>
+        <filter val="aws eks"/>
+        <filter val="aws glue"/>
       </filters>
     </filterColumn>
-    <sortState ref="A2:C55">
-      <sortCondition ref="B2"/>
+    <sortState ref="A1:C55">
+      <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C53">
-    <sortCondition ref="B2"/>
+  <sortState ref="A2:C56">
+    <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/skills.xlsx
+++ b/skills.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19966" windowHeight="7920"/>
+    <workbookView windowWidth="8231" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$55</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$57</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="63">
   <si>
     <t>skill</t>
   </si>
@@ -88,12 +88,12 @@
     <t>pandas</t>
   </si>
   <si>
+    <t>aws redshift</t>
+  </si>
+  <si>
     <t>aws dynamodb</t>
   </si>
   <si>
-    <t>amazon redshift</t>
-  </si>
-  <si>
     <t>aws glue</t>
   </si>
   <si>
@@ -142,64 +142,67 @@
     <t>snowflake</t>
   </si>
   <si>
+    <t>aws rds</t>
+  </si>
+  <si>
+    <t>elasticsearch</t>
+  </si>
+  <si>
     <t>aws eks</t>
   </si>
   <si>
-    <t>elasticsearch</t>
+    <t>nlp</t>
+  </si>
+  <si>
+    <t>natural language processing</t>
+  </si>
+  <si>
+    <t>google cloud</t>
+  </si>
+  <si>
+    <t>kafka</t>
+  </si>
+  <si>
+    <t>spark</t>
+  </si>
+  <si>
+    <t>jenkins</t>
+  </si>
+  <si>
+    <t>mongodb</t>
+  </si>
+  <si>
+    <t>powerbi</t>
+  </si>
+  <si>
+    <t>da</t>
+  </si>
+  <si>
+    <t>kubernetes</t>
+  </si>
+  <si>
+    <t>computer vision</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>computer vision engineer</t>
+  </si>
+  <si>
+    <t>mysql</t>
+  </si>
+  <si>
+    <t>azure</t>
   </si>
   <si>
     <t>aws aurora</t>
   </si>
   <si>
-    <t>nlp</t>
-  </si>
-  <si>
-    <t>natural language processing</t>
-  </si>
-  <si>
-    <t>google cloud</t>
-  </si>
-  <si>
-    <t>kafka</t>
-  </si>
-  <si>
-    <t>spark</t>
-  </si>
-  <si>
-    <t>jenkins</t>
-  </si>
-  <si>
-    <t>mongodb</t>
-  </si>
-  <si>
-    <t>powerbi</t>
-  </si>
-  <si>
-    <t>da</t>
-  </si>
-  <si>
-    <t>kubernetes</t>
-  </si>
-  <si>
-    <t>computer vision</t>
-  </si>
-  <si>
-    <t>postgresql</t>
-  </si>
-  <si>
-    <t>computer vision engineer</t>
-  </si>
-  <si>
-    <t>mysql</t>
-  </si>
-  <si>
-    <t>azure</t>
+    <t>sql server</t>
   </si>
   <si>
     <t>aws athena</t>
-  </si>
-  <si>
-    <t>sql server</t>
   </si>
   <si>
     <t>aws sagemaker</t>
@@ -210,9 +213,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
@@ -224,6 +227,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -232,32 +288,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -269,11 +304,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,33 +321,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -324,30 +342,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -377,187 +380,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,6 +571,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -610,15 +637,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -630,21 +648,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -671,15 +674,15 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -689,130 +692,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,9 +1140,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
@@ -1363,18 +1366,18 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>11888</v>
+        <v>13656</v>
       </c>
       <c r="C20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="21" hidden="1" spans="1:3">
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
-        <v>5804</v>
+        <v>11888</v>
       </c>
       <c r="C21" t="s">
         <v>8</v>
@@ -1550,7 +1553,7 @@
         <v>41</v>
       </c>
       <c r="B37">
-        <v>4796</v>
+        <v>4919</v>
       </c>
       <c r="C37" t="s">
         <v>8</v>
@@ -1572,7 +1575,7 @@
         <v>43</v>
       </c>
       <c r="B39">
-        <v>4080</v>
+        <v>4796</v>
       </c>
       <c r="C39" t="s">
         <v>8</v>
@@ -1737,7 +1740,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>3199</v>
+        <v>4080</v>
       </c>
       <c r="C54" t="s">
         <v>8</v>
@@ -1759,14 +1762,25 @@
         <v>61</v>
       </c>
       <c r="B56">
+        <v>3199</v>
+      </c>
+      <c r="C56" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" t="s">
+        <v>62</v>
+      </c>
+      <c r="B57">
         <v>2987</v>
       </c>
-      <c r="C56" t="s">
+      <c r="C57" t="s">
         <v>8</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C55">
+  <autoFilter ref="A1:C57">
     <filterColumn colId="0">
       <filters>
         <filter val="aws athena"/>
@@ -1774,19 +1788,22 @@
         <filter val="aws lambda"/>
         <filter val="aws ec2"/>
         <filter val="aws emr"/>
+        <filter val="aws dynamodb"/>
         <filter val="aws sagemaker"/>
         <filter val="aws"/>
         <filter val="aws s3"/>
         <filter val="aws eks"/>
+        <filter val="aws rds"/>
+        <filter val="aws redshift"/>
         <filter val="aws glue"/>
       </filters>
     </filterColumn>
-    <sortState ref="A1:C55">
+    <sortState ref="A2:C57">
       <sortCondition ref="B2" descending="1"/>
     </sortState>
     <extLst/>
   </autoFilter>
-  <sortState ref="A2:C56">
+  <sortState ref="A2:C57">
     <sortCondition ref="B2" descending="1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
